--- a/Business - Technology Services/MNDY.xlsx
+++ b/Business - Technology Services/MNDY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Business - Technology Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABB3757-0F0D-4A01-A989-07D57A9E33CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4832F11A-BBB8-46EA-BE2C-49F2079DD2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21885" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">DoR!$B$1:$C$1</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$22</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$B$21:$Q$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$B$22:$Q$22</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$B$2:$Q$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$B$2:$Q$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$B$3:$Q$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$B$4:$Q$4</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$B$2:$Q$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$B$3:$Q$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$B$4:$Q$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$21</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$22</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$B$21:$Q$21</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$B$22:$Q$22</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$B$2:$Q$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -6124,40 +6124,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Less than -29,82%</c:v>
+                  <c:v>Less than -29,93%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-29,82% to -23,74%</c:v>
+                  <c:v>-29,93% to -23,85%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-23,74% to -17,66%</c:v>
+                  <c:v>-23,85% to -17,76%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-17,66% to -11,57%</c:v>
+                  <c:v>-17,76% to -11,68%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-11,57% to -5,49%</c:v>
+                  <c:v>-11,68% to -5,59%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5,49% to 0,59%</c:v>
+                  <c:v>-5,59% to 0,49%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0,59% to 6,67%</c:v>
+                  <c:v>0,49% to 6,58%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6,67% to 12,75%</c:v>
+                  <c:v>6,58% to 12,66%</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12,75% to 18,83%</c:v>
+                  <c:v>12,66% to 18,75%</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18,83% to 24,91%</c:v>
+                  <c:v>18,75% to 24,83%</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24,91% to 30,99%</c:v>
+                  <c:v>24,83% to 30,91%</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Greater than 30,99%</c:v>
+                  <c:v>Greater than 30,91%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6181,16 +6181,16 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8</c:v>
@@ -6389,18 +6389,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6444,7 +6444,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6464,7 +6464,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6495,18 +6495,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6550,7 +6550,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6570,7 +6570,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -12290,8 +12290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21146,8 +21146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459034C9-60E4-4481-A5AB-C7748C68FD5F}">
   <dimension ref="A1:M158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F127" sqref="F127"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21186,15 +21186,16 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
-        <v>45390</v>
+        <v>45404</v>
       </c>
       <c r="C2" s="18">
-        <v>215.75</v>
+        <v>187.25</v>
       </c>
       <c r="D2" s="54">
         <f>C2/C3-1</f>
-        <v>-5.7603686635944173E-3</v>
-      </c>
+        <v>5.1552760150502586E-2</v>
+      </c>
+      <c r="F2" s="18"/>
       <c r="H2" s="55"/>
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
@@ -21204,14 +21205,14 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
-        <v>45383</v>
+        <v>45397</v>
       </c>
       <c r="C3" s="18">
-        <v>217</v>
+        <v>178.07</v>
       </c>
       <c r="D3" s="54">
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
-        <v>-3.9270355498081888E-2</v>
+        <v>-7.7883071824348948E-2</v>
       </c>
       <c r="H3" s="58" t="s">
         <v>159</v>
@@ -21234,22 +21235,22 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
-        <v>45376</v>
+        <v>45390</v>
       </c>
       <c r="C4" s="18">
-        <v>225.86999499999999</v>
+        <v>193.11</v>
       </c>
       <c r="D4" s="54">
         <f t="shared" si="0"/>
-        <v>-9.3421271929825522E-3</v>
+        <v>-0.11009216589861748</v>
       </c>
       <c r="H4" s="63">
         <f>$I$19-3*$I$23</f>
-        <v>-0.2981718187058584</v>
+        <v>-0.29929355502952232</v>
       </c>
       <c r="I4" s="64">
         <f>H4</f>
-        <v>-0.2981718187058584</v>
+        <v>-0.29929355502952232</v>
       </c>
       <c r="J4" s="65">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
@@ -21257,7 +21258,7 @@
       </c>
       <c r="K4" s="65" t="str">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
-        <v>Less than -29,82%</v>
+        <v>Less than -29,93%</v>
       </c>
       <c r="L4" s="66">
         <f>J4/$I$31</f>
@@ -21270,22 +21271,22 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
-        <v>45369</v>
+        <v>45383</v>
       </c>
       <c r="C5" s="18">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D5" s="54">
         <f t="shared" si="0"/>
-        <v>5.0691244239631228E-2</v>
+        <v>-3.9270355498081888E-2</v>
       </c>
       <c r="H5" s="68">
         <f>$I$19-2.4*$I$23</f>
-        <v>-0.23736328166831347</v>
+        <v>-0.23845054251640807</v>
       </c>
       <c r="I5" s="69">
         <f>H5</f>
-        <v>-0.23736328166831347</v>
+        <v>-0.23845054251640807</v>
       </c>
       <c r="J5" s="70">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
@@ -21293,35 +21294,35 @@
       </c>
       <c r="K5" s="71" t="str">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
-        <v>-29,82% to -23,74%</v>
+        <v>-29,93% to -23,85%</v>
       </c>
       <c r="L5" s="72">
         <f>J5/$I$31</f>
-        <v>6.7567567567567571E-3</v>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="M5" s="73">
         <f>M4+L5</f>
-        <v>6.7567567567567571E-3</v>
+        <v>6.6666666666666671E-3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
-        <v>45362</v>
+        <v>45376</v>
       </c>
       <c r="C6" s="18">
-        <v>217</v>
+        <v>225.86999499999999</v>
       </c>
       <c r="D6" s="54">
         <f t="shared" si="0"/>
-        <v>-1.5649793816962521E-2</v>
+        <v>-9.3421271929825522E-3</v>
       </c>
       <c r="H6" s="68">
         <f>$I$19-1.8*$I$23</f>
-        <v>-0.17655474463076859</v>
+        <v>-0.17760753000329388</v>
       </c>
       <c r="I6" s="69">
         <f t="shared" ref="I6:I14" si="2">H6</f>
-        <v>-0.17655474463076859</v>
+        <v>-0.17760753000329388</v>
       </c>
       <c r="J6" s="70">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
@@ -21329,35 +21330,35 @@
       </c>
       <c r="K6" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>-23,74% to -17,66%</v>
+        <v>-23,85% to -17,76%</v>
       </c>
       <c r="L6" s="72">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
-        <v>2.7027027027027029E-2</v>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="M6" s="73">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
-        <v>3.3783783783783786E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
-        <v>45355</v>
+        <v>45369</v>
       </c>
       <c r="C7" s="18">
-        <v>220.449997</v>
+        <v>228</v>
       </c>
       <c r="D7" s="54">
         <f t="shared" si="0"/>
-        <v>-3.6999829958062502E-2</v>
+        <v>5.0691244239631228E-2</v>
       </c>
       <c r="H7" s="68">
         <f>$I$19-1.2*$I$23</f>
-        <v>-0.1157462075932237</v>
+        <v>-0.11676451749017966</v>
       </c>
       <c r="I7" s="69">
         <f t="shared" si="2"/>
-        <v>-0.1157462075932237</v>
+        <v>-0.11676451749017966</v>
       </c>
       <c r="J7" s="70">
         <f t="shared" si="3"/>
@@ -21365,179 +21366,179 @@
       </c>
       <c r="K7" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>-17,66% to -11,57%</v>
+        <v>-17,76% to -11,68%</v>
       </c>
       <c r="L7" s="72">
         <f t="shared" si="4"/>
-        <v>6.0810810810810814E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M7" s="73">
         <f>M6+L7</f>
-        <v>9.45945945945946E-2</v>
+        <v>9.3333333333333324E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
-        <v>45348</v>
+        <v>45362</v>
       </c>
       <c r="C8" s="18">
-        <v>228.91999799999999</v>
+        <v>217</v>
       </c>
       <c r="D8" s="54">
         <f t="shared" si="0"/>
-        <v>0.10110632326425173</v>
+        <v>-1.5649793816962521E-2</v>
       </c>
       <c r="H8" s="68">
         <f>$I$19-0.6*$I$23</f>
-        <v>-5.4937670555678796E-2</v>
+        <v>-5.5921504977065453E-2</v>
       </c>
       <c r="I8" s="69">
         <f t="shared" si="2"/>
-        <v>-5.4937670555678796E-2</v>
+        <v>-5.5921504977065453E-2</v>
       </c>
       <c r="J8" s="70">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K8" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>-11,57% to -5,49%</v>
+        <v>-11,68% to -5,59%</v>
       </c>
       <c r="L8" s="72">
         <f t="shared" si="4"/>
-        <v>0.14864864864864866</v>
+        <v>0.16</v>
       </c>
       <c r="M8" s="73">
         <f t="shared" si="5"/>
-        <v>0.24324324324324326</v>
+        <v>0.2533333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
-        <v>45341</v>
+        <v>45355</v>
       </c>
       <c r="C9" s="18">
-        <v>207.89999399999999</v>
+        <v>220.449997</v>
       </c>
       <c r="D9" s="54">
         <f t="shared" si="0"/>
-        <v>-7.7230398439009362E-2</v>
+        <v>-3.6999829958062502E-2</v>
       </c>
       <c r="H9" s="68">
         <f>$I$19</f>
-        <v>5.8708664818660971E-3</v>
+        <v>4.9215075360487543E-3</v>
       </c>
       <c r="I9" s="69">
         <f t="shared" si="2"/>
-        <v>5.8708664818660971E-3</v>
+        <v>4.9215075360487543E-3</v>
       </c>
       <c r="J9" s="70">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K9" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>-5,49% to 0,59%</v>
+        <v>-5,59% to 0,49%</v>
       </c>
       <c r="L9" s="72">
         <f t="shared" si="4"/>
-        <v>0.26351351351351349</v>
+        <v>0.24666666666666667</v>
       </c>
       <c r="M9" s="73">
         <f t="shared" si="5"/>
-        <v>0.5067567567567568</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
-        <v>45334</v>
+        <v>45348</v>
       </c>
       <c r="C10" s="18">
-        <v>225.300003</v>
+        <v>228.91999799999999</v>
       </c>
       <c r="D10" s="54">
         <f t="shared" si="0"/>
-        <v>-4.5015238597958862E-2</v>
+        <v>0.10110632326425173</v>
       </c>
       <c r="H10" s="68">
         <f>$I$19+0.6*$I$23</f>
-        <v>6.6679403519410985E-2</v>
+        <v>6.5764520049162958E-2</v>
       </c>
       <c r="I10" s="69">
         <f t="shared" si="2"/>
-        <v>6.6679403519410985E-2</v>
+        <v>6.5764520049162958E-2</v>
       </c>
       <c r="J10" s="70">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>0,59% to 6,67%</v>
+        <v>0,49% to 6,58%</v>
       </c>
       <c r="L10" s="72">
         <f t="shared" si="4"/>
-        <v>0.27702702702702703</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M10" s="73">
         <f t="shared" si="5"/>
-        <v>0.78378378378378377</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
-        <v>45327</v>
+        <v>45341</v>
       </c>
       <c r="C11" s="18">
-        <v>235.91999799999999</v>
+        <v>207.89999399999999</v>
       </c>
       <c r="D11" s="54">
         <f t="shared" si="0"/>
-        <v>0.10212090163618504</v>
+        <v>-7.7230398439009362E-2</v>
       </c>
       <c r="H11" s="68">
         <f>$I$19+1.2*$I$23</f>
-        <v>0.12748794055695589</v>
+        <v>0.12660753256227716</v>
       </c>
       <c r="I11" s="69">
         <f t="shared" si="2"/>
-        <v>0.12748794055695589</v>
+        <v>0.12660753256227716</v>
       </c>
       <c r="J11" s="70">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>6,67% to 12,75%</v>
+        <v>6,58% to 12,66%</v>
       </c>
       <c r="L11" s="72">
         <f t="shared" si="4"/>
-        <v>0.12162162162162163</v>
+        <v>0.12666666666666668</v>
       </c>
       <c r="M11" s="73">
         <f t="shared" si="5"/>
-        <v>0.90540540540540537</v>
+        <v>0.90666666666666673</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
-        <v>45320</v>
+        <v>45334</v>
       </c>
       <c r="C12" s="18">
-        <v>214.05999800000001</v>
+        <v>225.300003</v>
       </c>
       <c r="D12" s="54">
         <f t="shared" si="0"/>
-        <v>2.6026903464820395E-2</v>
+        <v>-4.5015238597958862E-2</v>
       </c>
       <c r="H12" s="68">
         <f>$I$19+1.8*$I$23</f>
-        <v>0.1882964775945008</v>
+        <v>0.18745054507539138</v>
       </c>
       <c r="I12" s="69">
         <f t="shared" si="2"/>
-        <v>0.1882964775945008</v>
+        <v>0.18745054507539138</v>
       </c>
       <c r="J12" s="70">
         <f t="shared" si="3"/>
@@ -21545,35 +21546,35 @@
       </c>
       <c r="K12" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>12,75% to 18,83%</v>
+        <v>12,66% to 18,75%</v>
       </c>
       <c r="L12" s="72">
         <f t="shared" si="4"/>
-        <v>5.4054054054054057E-2</v>
+        <v>5.3333333333333337E-2</v>
       </c>
       <c r="M12" s="73">
         <f t="shared" si="5"/>
-        <v>0.95945945945945943</v>
+        <v>0.96000000000000008</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
-        <v>45313</v>
+        <v>45327</v>
       </c>
       <c r="C13" s="18">
-        <v>208.63000500000001</v>
+        <v>235.91999799999999</v>
       </c>
       <c r="D13" s="54">
         <f t="shared" si="0"/>
-        <v>6.6451973969943845E-2</v>
+        <v>0.10212090163618504</v>
       </c>
       <c r="H13" s="68">
         <f>$I$19+2.4*$I$23</f>
-        <v>0.24910501463204568</v>
+        <v>0.24829355758850558</v>
       </c>
       <c r="I13" s="69">
         <f t="shared" si="2"/>
-        <v>0.24910501463204568</v>
+        <v>0.24829355758850558</v>
       </c>
       <c r="J13" s="70">
         <f t="shared" si="3"/>
@@ -21581,35 +21582,35 @@
       </c>
       <c r="K13" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>18,83% to 24,91%</v>
+        <v>18,75% to 24,83%</v>
       </c>
       <c r="L13" s="72">
         <f t="shared" si="4"/>
-        <v>2.0270270270270271E-2</v>
+        <v>0.02</v>
       </c>
       <c r="M13" s="73">
         <f t="shared" si="5"/>
-        <v>0.97972972972972971</v>
+        <v>0.98000000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
-        <v>45306</v>
+        <v>45320</v>
       </c>
       <c r="C14" s="18">
-        <v>195.63000500000001</v>
+        <v>214.05999800000001</v>
       </c>
       <c r="D14" s="54">
         <f t="shared" si="0"/>
-        <v>2.5798321112745937E-2</v>
+        <v>2.6026903464820395E-2</v>
       </c>
       <c r="H14" s="68">
         <f>$I$19+3*$I$23</f>
-        <v>0.30991355166959056</v>
+        <v>0.30913657010161982</v>
       </c>
       <c r="I14" s="69">
         <f t="shared" si="2"/>
-        <v>0.30991355166959056</v>
+        <v>0.30913657010161982</v>
       </c>
       <c r="J14" s="70">
         <f t="shared" si="3"/>
@@ -21617,27 +21618,27 @@
       </c>
       <c r="K14" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>24,91% to 30,99%</v>
+        <v>24,83% to 30,91%</v>
       </c>
       <c r="L14" s="72">
         <f t="shared" si="4"/>
-        <v>6.7567567567567571E-3</v>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="M14" s="73">
         <f t="shared" si="5"/>
-        <v>0.98648648648648651</v>
+        <v>0.9866666666666668</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
-        <v>45299</v>
+        <v>45313</v>
       </c>
       <c r="C15" s="18">
-        <v>190.71000699999999</v>
+        <v>208.63000500000001</v>
       </c>
       <c r="D15" s="54">
         <f t="shared" si="0"/>
-        <v>7.8737567459488345E-2</v>
+        <v>6.6451973969943845E-2</v>
       </c>
       <c r="H15" s="74"/>
       <c r="I15" s="75" t="s">
@@ -21649,41 +21650,41 @@
       </c>
       <c r="K15" s="75" t="str">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
-        <v>Greater than 30,99%</v>
+        <v>Greater than 30,91%</v>
       </c>
       <c r="L15" s="76">
         <f t="shared" si="4"/>
-        <v>1.3513513513513514E-2</v>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="M15" s="76">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
-        <v>45292</v>
+        <v>45306</v>
       </c>
       <c r="C16" s="18">
-        <v>176.78999300000001</v>
+        <v>195.63000500000001</v>
       </c>
       <c r="D16" s="54">
         <f t="shared" si="0"/>
-        <v>-5.8676349062098399E-2</v>
+        <v>2.5798321112745937E-2</v>
       </c>
       <c r="H16" s="77"/>
       <c r="M16" s="78"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
-        <v>45285</v>
+        <v>45299</v>
       </c>
       <c r="C17" s="18">
-        <v>187.80999800000001</v>
+        <v>190.71000699999999</v>
       </c>
       <c r="D17" s="54">
         <f t="shared" si="0"/>
-        <v>-8.7090094956028263E-3</v>
+        <v>7.8737567459488345E-2</v>
       </c>
       <c r="H17" s="120" t="s">
         <v>166</v>
@@ -21693,14 +21694,14 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
-        <v>45278</v>
+        <v>45292</v>
       </c>
       <c r="C18" s="18">
-        <v>189.46000699999999</v>
+        <v>176.78999300000001</v>
       </c>
       <c r="D18" s="54">
         <f t="shared" si="0"/>
-        <v>2.0627280137561765E-3</v>
+        <v>-5.8676349062098399E-2</v>
       </c>
       <c r="H18" s="122"/>
       <c r="I18" s="123"/>
@@ -21708,54 +21709,54 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
-        <v>45271</v>
+        <v>45285</v>
       </c>
       <c r="C19" s="18">
-        <v>189.070007</v>
+        <v>187.80999800000001</v>
       </c>
       <c r="D19" s="54">
         <f t="shared" si="0"/>
-        <v>8.0214866481259639E-2</v>
+        <v>-8.7090094956028263E-3</v>
       </c>
       <c r="H19" s="79" t="s">
         <v>167</v>
       </c>
       <c r="I19" s="114">
         <f>AVERAGE(D:D)</f>
-        <v>5.8708664818660971E-3</v>
+        <v>4.9215075360487543E-3</v>
       </c>
       <c r="M19" s="78"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
-        <v>45264</v>
+        <v>45278</v>
       </c>
       <c r="C20" s="18">
-        <v>175.029999</v>
+        <v>189.46000699999999</v>
       </c>
       <c r="D20" s="54">
         <f t="shared" si="0"/>
-        <v>-7.5976415376095563E-3</v>
+        <v>2.0627280137561765E-3</v>
       </c>
       <c r="H20" s="79" t="s">
         <v>168</v>
       </c>
       <c r="I20" s="114">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
-        <v>8.330718257077244E-3</v>
+        <v>8.2796852817167681E-3</v>
       </c>
       <c r="M20" s="78"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
-        <v>45257</v>
+        <v>45271</v>
       </c>
       <c r="C21" s="18">
-        <v>176.36999499999999</v>
+        <v>189.070007</v>
       </c>
       <c r="D21" s="54">
         <f t="shared" si="0"/>
-        <v>7.5406568259241968E-3</v>
+        <v>8.0214866481259639E-2</v>
       </c>
       <c r="H21" s="79" t="s">
         <v>169</v>
@@ -21768,14 +21769,14 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
-        <v>45250</v>
+        <v>45264</v>
       </c>
       <c r="C22" s="18">
-        <v>175.050003</v>
+        <v>175.029999</v>
       </c>
       <c r="D22" s="54">
         <f t="shared" si="0"/>
-        <v>3.1526258659863249E-2</v>
+        <v>-7.5976415376095563E-3</v>
       </c>
       <c r="H22" s="79" t="s">
         <v>170</v>
@@ -21788,94 +21789,94 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
-        <v>45243</v>
+        <v>45257</v>
       </c>
       <c r="C23" s="18">
-        <v>169.699997</v>
+        <v>176.36999499999999</v>
       </c>
       <c r="D23" s="54">
         <f t="shared" si="0"/>
-        <v>0.21110478914875785</v>
+        <v>7.5406568259241968E-3</v>
       </c>
       <c r="H23" s="79" t="s">
         <v>171</v>
       </c>
       <c r="I23" s="114">
         <f>_xlfn.STDEV.S(D:D)</f>
-        <v>0.10134756172924149</v>
+        <v>0.10140502085519035</v>
       </c>
       <c r="M23" s="78"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
-        <v>45236</v>
+        <v>45250</v>
       </c>
       <c r="C24" s="18">
-        <v>140.11999499999999</v>
+        <v>175.050003</v>
       </c>
       <c r="D24" s="54">
         <f t="shared" si="0"/>
-        <v>6.1836826062005246E-2</v>
+        <v>3.1526258659863249E-2</v>
       </c>
       <c r="H24" s="79" t="s">
         <v>172</v>
       </c>
       <c r="I24" s="114">
         <f>_xlfn.VAR.S(D:D)</f>
-        <v>1.0271328268462415E-2</v>
+        <v>1.0282978254641591E-2</v>
       </c>
       <c r="M24" s="78"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
-        <v>45229</v>
+        <v>45243</v>
       </c>
       <c r="C25" s="18">
-        <v>131.96000699999999</v>
+        <v>169.699997</v>
       </c>
       <c r="D25" s="54">
         <f t="shared" si="0"/>
-        <v>2.1046130414495101E-2</v>
+        <v>0.21110478914875785</v>
       </c>
       <c r="H25" s="79" t="s">
         <v>173</v>
       </c>
       <c r="I25" s="115">
         <f>KURT(D:D)</f>
-        <v>1.6054064394877656</v>
+        <v>1.5661200667339727</v>
       </c>
       <c r="M25" s="78"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
-        <v>45222</v>
+        <v>45236</v>
       </c>
       <c r="C26" s="18">
-        <v>129.240005</v>
+        <v>140.11999499999999</v>
       </c>
       <c r="D26" s="54">
         <f t="shared" si="0"/>
-        <v>-2.0983183886947421E-2</v>
+        <v>6.1836826062005246E-2</v>
       </c>
       <c r="H26" s="79" t="s">
         <v>174</v>
       </c>
       <c r="I26" s="115">
         <f>SKEW(D:D)</f>
-        <v>0.52647641131007628</v>
+        <v>0.53352625699346223</v>
       </c>
       <c r="M26" s="78"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
-        <v>45215</v>
+        <v>45229</v>
       </c>
       <c r="C27" s="18">
-        <v>132.009995</v>
+        <v>131.96000699999999</v>
       </c>
       <c r="D27" s="54">
         <f t="shared" si="0"/>
-        <v>-5.7609986327670115E-2</v>
+        <v>2.1046130414495101E-2</v>
       </c>
       <c r="H27" s="79" t="s">
         <v>162</v>
@@ -21888,14 +21889,14 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
-        <v>45208</v>
+        <v>45222</v>
       </c>
       <c r="C28" s="18">
-        <v>140.08000200000001</v>
+        <v>129.240005</v>
       </c>
       <c r="D28" s="54">
         <f t="shared" si="0"/>
-        <v>-0.11688307643686402</v>
+        <v>-2.0983183886947421E-2</v>
       </c>
       <c r="H28" s="79" t="s">
         <v>175</v>
@@ -21908,14 +21909,14 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
-        <v>45201</v>
+        <v>45215</v>
       </c>
       <c r="C29" s="18">
-        <v>158.61999499999999</v>
+        <v>132.009995</v>
       </c>
       <c r="D29" s="54">
         <f t="shared" si="0"/>
-        <v>-3.7684084677276353E-3</v>
+        <v>-5.7609986327670115E-2</v>
       </c>
       <c r="H29" s="79" t="s">
         <v>176</v>
@@ -21928,68 +21929,68 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
-        <v>45194</v>
+        <v>45208</v>
       </c>
       <c r="C30" s="18">
-        <v>159.220001</v>
+        <v>140.08000200000001</v>
       </c>
       <c r="D30" s="54">
         <f t="shared" si="0"/>
-        <v>1.4140133757961859E-2</v>
+        <v>-0.11688307643686402</v>
       </c>
       <c r="H30" s="79" t="s">
         <v>177</v>
       </c>
       <c r="I30" s="115">
         <f>SUM(D:D)</f>
-        <v>0.86888823931618242</v>
+        <v>0.73822613040731311</v>
       </c>
       <c r="M30" s="78"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
-        <v>45187</v>
+        <v>45201</v>
       </c>
       <c r="C31" s="18">
-        <v>157</v>
+        <v>158.61999499999999</v>
       </c>
       <c r="D31" s="54">
         <f t="shared" si="0"/>
-        <v>-3.9050096736133688E-2</v>
+        <v>-3.7684084677276353E-3</v>
       </c>
       <c r="H31" s="80" t="s">
         <v>178</v>
       </c>
       <c r="I31" s="116">
         <f>COUNT(D:D)</f>
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M31" s="78"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
-        <v>45180</v>
+        <v>45194</v>
       </c>
       <c r="C32" s="18">
-        <v>163.38000500000001</v>
+        <v>159.220001</v>
       </c>
       <c r="D32" s="54">
         <f t="shared" si="0"/>
-        <v>-4.5677524164909777E-2</v>
+        <v>1.4140133757961859E-2</v>
       </c>
       <c r="H32" s="81"/>
       <c r="M32" s="78"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
-        <v>45173</v>
+        <v>45187</v>
       </c>
       <c r="C33" s="18">
-        <v>171.199997</v>
+        <v>157</v>
       </c>
       <c r="D33" s="54">
         <f t="shared" si="0"/>
-        <v>-3.0522674681979223E-2</v>
+        <v>-3.9050096736133688E-2</v>
       </c>
       <c r="H33" s="82"/>
       <c r="I33" s="83" t="s">
@@ -22008,78 +22009,78 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
-        <v>45166</v>
+        <v>45180</v>
       </c>
       <c r="C34" s="18">
-        <v>176.58999600000001</v>
+        <v>163.38000500000001</v>
       </c>
       <c r="D34" s="54">
         <f t="shared" si="0"/>
-        <v>4.3737773583098827E-2</v>
+        <v>-4.5677524164909777E-2</v>
       </c>
       <c r="H34" s="85" t="s">
         <v>182</v>
       </c>
       <c r="I34" s="72">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
-        <v>7.556312313711451E-2</v>
+        <v>7.5259194491714337E-2</v>
       </c>
       <c r="J34" s="70">
         <f>COUNTIF(D:D,"&gt;0")</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K34" s="72">
         <f>J34/$I$31</f>
-        <v>0.52702702702702697</v>
+        <v>0.52666666666666662</v>
       </c>
       <c r="L34" s="73">
         <f>K34*I34</f>
-        <v>3.9823808139830615E-2</v>
+        <v>3.9636509098969548E-2</v>
       </c>
       <c r="M34" s="78"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
-        <v>45159</v>
+        <v>45173</v>
       </c>
       <c r="C35" s="18">
-        <v>169.19000199999999</v>
+        <v>171.199997</v>
       </c>
       <c r="D35" s="54">
         <f t="shared" si="0"/>
-        <v>5.0412830738872483E-2</v>
+        <v>-3.0522674681979223E-2</v>
       </c>
       <c r="H35" s="85" t="s">
         <v>183</v>
       </c>
       <c r="I35" s="72">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
-        <v>-7.178621950541067E-2</v>
+        <v>-7.3341552597719989E-2</v>
       </c>
       <c r="J35" s="70">
         <f>COUNTIF(D:D,"&lt;0")</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K35" s="72">
         <f>J35/$I$31</f>
-        <v>0.47297297297297297</v>
+        <v>0.47333333333333333</v>
       </c>
       <c r="L35" s="73">
         <f t="shared" ref="L35:L36" si="6">K35*I35</f>
-        <v>-3.3952941657964503E-2</v>
+        <v>-3.4715001562920796E-2</v>
       </c>
       <c r="M35" s="78"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
-        <v>45152</v>
+        <v>45166</v>
       </c>
       <c r="C36" s="18">
-        <v>161.070007</v>
+        <v>176.58999600000001</v>
       </c>
       <c r="D36" s="54">
         <f t="shared" si="0"/>
-        <v>3.3560133048258001E-2</v>
+        <v>4.3737773583098827E-2</v>
       </c>
       <c r="H36" s="86" t="s">
         <v>184</v>
@@ -22103,14 +22104,14 @@
     </row>
     <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
-        <v>45145</v>
+        <v>45159</v>
       </c>
       <c r="C37" s="18">
-        <v>155.83999600000001</v>
+        <v>169.19000199999999</v>
       </c>
       <c r="D37" s="54">
         <f t="shared" si="0"/>
-        <v>-3.1989619479793063E-2</v>
+        <v>5.0412830738872483E-2</v>
       </c>
       <c r="H37" s="81"/>
       <c r="I37" s="88"/>
@@ -22121,14 +22122,14 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
-        <v>45138</v>
+        <v>45152</v>
       </c>
       <c r="C38" s="18">
-        <v>160.990005</v>
+        <v>161.070007</v>
       </c>
       <c r="D38" s="54">
         <f t="shared" si="0"/>
-        <v>-0.10176862917521912</v>
+        <v>3.3560133048258001E-2</v>
       </c>
       <c r="H38" s="63" t="s">
         <v>185</v>
@@ -22151,33 +22152,33 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
-        <v>45131</v>
+        <v>45145</v>
       </c>
       <c r="C39" s="18">
-        <v>179.229996</v>
+        <v>155.83999600000001</v>
       </c>
       <c r="D39" s="54">
         <f t="shared" si="0"/>
-        <v>3.4695733548691043E-2</v>
+        <v>-3.1989619479793063E-2</v>
       </c>
       <c r="H39" s="89">
         <v>1</v>
       </c>
       <c r="I39" s="72">
         <f>$I$19+($H39*$I$23)</f>
-        <v>0.10721842821110758</v>
+        <v>0.1063265283912391</v>
       </c>
       <c r="J39" s="72">
         <f>$I$19-($H39*$I$23)</f>
-        <v>-9.5476695247375398E-2</v>
+        <v>-9.6483513319141595E-2</v>
       </c>
       <c r="K39" s="70">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L39" s="72">
         <f>K39/$I$31</f>
-        <v>0.73648648648648651</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="M39" s="73">
         <v>0.68269999999999997</v>
@@ -22185,33 +22186,33 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="12">
-        <v>45124</v>
+        <v>45138</v>
       </c>
       <c r="C40" s="18">
-        <v>173.220001</v>
+        <v>160.990005</v>
       </c>
       <c r="D40" s="54">
         <f t="shared" si="0"/>
-        <v>-7.676426531581515E-3</v>
+        <v>-0.10176862917521912</v>
       </c>
       <c r="H40" s="89">
         <v>2</v>
       </c>
       <c r="I40" s="72">
         <f>$I$19+($H40*$I$23)</f>
-        <v>0.20856598994034908</v>
+        <v>0.20773154924642945</v>
       </c>
       <c r="J40" s="72">
         <f>$I$19-($H40*$I$23)</f>
-        <v>-0.19682425697661687</v>
+        <v>-0.19788853417433194</v>
       </c>
       <c r="K40" s="70">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L40" s="72">
         <f>K40/$I$31</f>
-        <v>0.93918918918918914</v>
+        <v>0.94</v>
       </c>
       <c r="M40" s="73">
         <v>0.95450000000000002</v>
@@ -22219,33 +22220,33 @@
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="12">
-        <v>45117</v>
+        <v>45131</v>
       </c>
       <c r="C41" s="18">
-        <v>174.55999800000001</v>
+        <v>179.229996</v>
       </c>
       <c r="D41" s="54">
         <f t="shared" si="0"/>
-        <v>7.8462850126882255E-2</v>
+        <v>3.4695733548691043E-2</v>
       </c>
       <c r="H41" s="89">
         <v>3</v>
       </c>
       <c r="I41" s="72">
         <f>$I$19+($H41*$I$23)</f>
-        <v>0.30991355166959056</v>
+        <v>0.30913657010161982</v>
       </c>
       <c r="J41" s="72">
         <f>$I$19-($H41*$I$23)</f>
-        <v>-0.2981718187058584</v>
+        <v>-0.29929355502952232</v>
       </c>
       <c r="K41" s="70">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L41" s="72">
         <f>K41/$I$31</f>
-        <v>0.98648648648648651</v>
+        <v>0.98666666666666669</v>
       </c>
       <c r="M41" s="90">
         <v>0.99729999999999996</v>
@@ -22253,28 +22254,28 @@
     </row>
     <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
-        <v>45110</v>
+        <v>45124</v>
       </c>
       <c r="C42" s="18">
-        <v>161.86000100000001</v>
+        <v>173.220001</v>
       </c>
       <c r="D42" s="54">
         <f t="shared" si="0"/>
-        <v>-5.4666510602344842E-2</v>
+        <v>-7.676426531581515E-3</v>
       </c>
       <c r="H42" s="68"/>
       <c r="M42" s="90"/>
     </row>
     <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
-        <v>45103</v>
+        <v>45117</v>
       </c>
       <c r="C43" s="18">
-        <v>171.220001</v>
+        <v>174.55999800000001</v>
       </c>
       <c r="D43" s="54">
         <f t="shared" si="0"/>
-        <v>1.0028297309384149E-2</v>
+        <v>7.8462850126882255E-2</v>
       </c>
       <c r="H43" s="124" t="s">
         <v>191</v>
@@ -22287,219 +22288,219 @@
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
-        <v>45096</v>
+        <v>45110</v>
       </c>
       <c r="C44" s="18">
-        <v>169.520004</v>
+        <v>161.86000100000001</v>
       </c>
       <c r="D44" s="54">
         <f t="shared" si="0"/>
-        <v>-5.1954555695481908E-2</v>
+        <v>-5.4666510602344842E-2</v>
       </c>
       <c r="H44" s="91">
         <v>0.01</v>
       </c>
       <c r="I44" s="92">
         <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
-        <v>-0.21784477027529719</v>
+        <v>-0.21728143418206292</v>
       </c>
       <c r="J44" s="93">
         <v>0.2</v>
       </c>
       <c r="K44" s="92">
         <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
-        <v>-6.3556748515304018E-2</v>
+        <v>-6.7353114422406962E-2</v>
       </c>
       <c r="L44" s="93">
         <v>0.85</v>
       </c>
       <c r="M44" s="94">
         <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
-        <v>9.8725460847149477E-2</v>
+        <v>9.5265571975656646E-2</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="12">
-        <v>45089</v>
+        <v>45103</v>
       </c>
       <c r="C45" s="18">
-        <v>178.80999800000001</v>
+        <v>171.220001</v>
       </c>
       <c r="D45" s="54">
         <f t="shared" si="0"/>
-        <v>2.3408865479573882E-2</v>
+        <v>1.0028297309384149E-2</v>
       </c>
       <c r="H45" s="95">
         <v>0.02</v>
       </c>
       <c r="I45" s="96">
         <f t="shared" si="7"/>
-        <v>-0.19255495345446894</v>
+        <v>-0.1921140423757404</v>
       </c>
       <c r="J45" s="97">
         <v>0.25</v>
       </c>
       <c r="K45" s="96">
         <f t="shared" si="8"/>
-        <v>-5.2632544422197641E-2</v>
+        <v>-5.620622451747373E-2</v>
       </c>
       <c r="L45" s="97">
         <v>0.86</v>
       </c>
       <c r="M45" s="98">
         <f t="shared" si="9"/>
-        <v>0.10153244618046373</v>
+        <v>0.10124836423632237</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="12">
-        <v>45082</v>
+        <v>45096</v>
       </c>
       <c r="C46" s="18">
-        <v>174.720001</v>
+        <v>169.520004</v>
       </c>
       <c r="D46" s="54">
         <f t="shared" si="0"/>
-        <v>-1.5999942857143346E-3</v>
+        <v>-5.1954555695481908E-2</v>
       </c>
       <c r="H46" s="95">
         <v>0.03</v>
       </c>
       <c r="I46" s="96">
         <f t="shared" si="7"/>
-        <v>-0.1828269027824852</v>
+        <v>-0.18215598129918717</v>
       </c>
       <c r="J46" s="97">
         <v>0.3</v>
       </c>
       <c r="K46" s="96">
         <f t="shared" si="8"/>
-        <v>-4.4440750287971155E-2</v>
+        <v>-4.5349268763198301E-2</v>
       </c>
       <c r="L46" s="97">
         <v>0.87</v>
       </c>
       <c r="M46" s="98">
         <f t="shared" si="9"/>
-        <v>0.10439079722439422</v>
+        <v>0.10372768165929941</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="12">
-        <v>45075</v>
+        <v>45089</v>
       </c>
       <c r="C47" s="18">
-        <v>175</v>
+        <v>178.80999800000001</v>
       </c>
       <c r="D47" s="54">
         <f t="shared" si="0"/>
-        <v>4.6650736482967803E-2</v>
+        <v>2.3408865479573882E-2</v>
       </c>
       <c r="H47" s="95">
         <v>0.04</v>
       </c>
       <c r="I47" s="96">
         <f t="shared" si="7"/>
-        <v>-0.17222510632195803</v>
+        <v>-0.17186106978788865</v>
       </c>
       <c r="J47" s="97">
         <v>0.35</v>
       </c>
       <c r="K47" s="96">
         <f t="shared" si="8"/>
-        <v>-2.3943738369986443E-2</v>
+        <v>-2.976993111770658E-2</v>
       </c>
       <c r="L47" s="97">
         <v>0.88</v>
       </c>
       <c r="M47" s="98">
         <f t="shared" si="9"/>
-        <v>0.11062492599186458</v>
+        <v>0.10965719237104032</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="12">
-        <v>45068</v>
+        <v>45082</v>
       </c>
       <c r="C48" s="18">
-        <v>167.199997</v>
+        <v>174.720001</v>
       </c>
       <c r="D48" s="54">
         <f t="shared" si="0"/>
-        <v>0.11630389982844092</v>
+        <v>-1.5999942857143346E-3</v>
       </c>
       <c r="H48" s="95">
         <v>0.05</v>
       </c>
       <c r="I48" s="96">
         <f t="shared" si="7"/>
-        <v>-0.16206552696269527</v>
+        <v>-0.16196721016684931</v>
       </c>
       <c r="J48" s="97">
         <v>0.4</v>
       </c>
       <c r="K48" s="96">
         <f t="shared" si="8"/>
-        <v>-1.1021736869965534E-2</v>
+        <v>-1.4367674296328323E-2</v>
       </c>
       <c r="L48" s="97">
         <v>0.89</v>
       </c>
       <c r="M48" s="98">
         <f t="shared" si="9"/>
-        <v>0.11577718018432995</v>
+        <v>0.11509554299783335</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="12">
-        <v>45061</v>
+        <v>45075</v>
       </c>
       <c r="C49" s="18">
-        <v>149.779999</v>
+        <v>175</v>
       </c>
       <c r="D49" s="54">
         <f t="shared" si="0"/>
-        <v>0.14248659149565568</v>
+        <v>4.6650736482967803E-2</v>
       </c>
       <c r="H49" s="95">
         <v>0.06</v>
       </c>
       <c r="I49" s="96">
         <f t="shared" si="7"/>
-        <v>-0.1511717856793508</v>
+        <v>-0.14967110049247095</v>
       </c>
       <c r="J49" s="97">
         <v>0.45</v>
       </c>
       <c r="K49" s="96">
         <f t="shared" si="8"/>
-        <v>-3.443146340425628E-3</v>
+        <v>-3.6599877586269763E-3</v>
       </c>
       <c r="L49" s="97">
         <v>0.9</v>
       </c>
       <c r="M49" s="98">
         <f t="shared" si="9"/>
-        <v>0.11668865359380462</v>
+        <v>0.11668665628971416</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="12">
-        <v>45054</v>
+        <v>45068</v>
       </c>
       <c r="C50" s="18">
-        <v>131.10000600000001</v>
+        <v>167.199997</v>
       </c>
       <c r="D50" s="54">
         <f t="shared" si="0"/>
-        <v>0.1277419870967742</v>
+        <v>0.11630389982844092</v>
       </c>
       <c r="H50" s="95">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I50" s="96">
         <f t="shared" si="7"/>
-        <v>-0.13726744797589935</v>
+        <v>-0.13475325137988969</v>
       </c>
       <c r="J50" s="97">
         <v>0.5</v>
@@ -22513,224 +22514,224 @@
       </c>
       <c r="M50" s="98">
         <f t="shared" si="9"/>
-        <v>0.12520132822088414</v>
+        <v>0.12321298649192654</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="12">
-        <v>45047</v>
+        <v>45061</v>
       </c>
       <c r="C51" s="18">
-        <v>116.25</v>
+        <v>149.779999</v>
       </c>
       <c r="D51" s="54">
         <f t="shared" si="0"/>
-        <v>-4.6505889870503525E-2</v>
+        <v>0.14248659149565568</v>
       </c>
       <c r="H51" s="95">
         <v>0.08</v>
       </c>
       <c r="I51" s="96">
         <f t="shared" si="7"/>
-        <v>-0.11925649847595918</v>
+        <v>-0.11814904983411739</v>
       </c>
       <c r="J51" s="97">
         <v>0.55000000000000004</v>
       </c>
       <c r="K51" s="96">
         <f t="shared" si="8"/>
-        <v>1.0358964252821925E-2</v>
+        <v>1.0376097785862393E-2</v>
       </c>
       <c r="L51" s="97">
         <v>0.92</v>
       </c>
       <c r="M51" s="98">
         <f t="shared" si="9"/>
-        <v>0.14518532476057899</v>
+        <v>0.14338616925063022</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="12">
-        <v>45040</v>
+        <v>45054</v>
       </c>
       <c r="C52" s="18">
-        <v>121.91999800000001</v>
+        <v>131.10000600000001</v>
       </c>
       <c r="D52" s="54">
         <f t="shared" si="0"/>
-        <v>-6.4456787513831215E-2</v>
+        <v>0.1277419870967742</v>
       </c>
       <c r="H52" s="95">
         <v>0.09</v>
       </c>
       <c r="I52" s="96">
         <f t="shared" si="7"/>
-        <v>-0.11550748744491487</v>
+        <v>-0.11443093953817206</v>
       </c>
       <c r="J52" s="97">
         <v>0.6</v>
       </c>
       <c r="K52" s="96">
         <f t="shared" si="8"/>
-        <v>1.7297768861836947E-2</v>
+        <v>1.799720841593843E-2</v>
       </c>
       <c r="L52" s="97">
         <v>0.93</v>
       </c>
       <c r="M52" s="98">
         <f t="shared" si="9"/>
-        <v>0.1632762912237698</v>
+        <v>0.16139418292696572</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="12">
-        <v>45033</v>
+        <v>45047</v>
       </c>
       <c r="C53" s="18">
-        <v>130.320007</v>
+        <v>116.25</v>
       </c>
       <c r="D53" s="54">
         <f t="shared" si="0"/>
-        <v>-4.5828827464540201E-3</v>
+        <v>-4.6505889870503525E-2</v>
       </c>
       <c r="H53" s="95">
         <v>0.1</v>
       </c>
       <c r="I53" s="96">
         <f t="shared" si="7"/>
-        <v>-0.11049422030135157</v>
+        <v>-0.11037763903524136</v>
       </c>
       <c r="J53" s="97">
         <v>0.65</v>
       </c>
       <c r="K53" s="96">
         <f t="shared" si="8"/>
-        <v>2.5924041406386888E-2</v>
+        <v>2.5992616112009228E-2</v>
       </c>
       <c r="L53" s="97">
         <v>0.94</v>
       </c>
       <c r="M53" s="98">
         <f t="shared" si="9"/>
-        <v>0.17395598424147868</v>
+        <v>0.17375485880242725</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="12">
-        <v>45026</v>
+        <v>45040</v>
       </c>
       <c r="C54" s="18">
-        <v>130.91999799999999</v>
+        <v>121.91999800000001</v>
       </c>
       <c r="D54" s="54">
         <f t="shared" si="0"/>
-        <v>-2.2036282290142761E-2</v>
+        <v>-6.4456787513831215E-2</v>
       </c>
       <c r="H54" s="95">
         <v>0.11</v>
       </c>
       <c r="I54" s="96">
         <f t="shared" si="7"/>
-        <v>-0.10612953985602994</v>
+        <v>-0.10872888178319928</v>
       </c>
       <c r="J54" s="97">
         <v>0.7</v>
       </c>
       <c r="K54" s="96">
         <f t="shared" si="8"/>
-        <v>4.1595426167669584E-2</v>
+        <v>4.2550615575621759E-2</v>
       </c>
       <c r="L54" s="97">
         <v>0.95</v>
       </c>
       <c r="M54" s="98">
         <f t="shared" si="9"/>
-        <v>0.17599553922315261</v>
+        <v>0.17589320109779533</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="12">
-        <v>45019</v>
+        <v>45033</v>
       </c>
       <c r="C55" s="18">
-        <v>133.86999499999999</v>
+        <v>130.320007</v>
       </c>
       <c r="D55" s="54">
         <f t="shared" si="0"/>
-        <v>-6.2206690017513222E-2</v>
+        <v>-4.5828827464540201E-3</v>
       </c>
       <c r="H55" s="95">
         <v>0.12</v>
       </c>
       <c r="I55" s="96">
         <f t="shared" si="7"/>
-        <v>-0.10260542489060633</v>
+        <v>-0.10417902056122498</v>
       </c>
       <c r="J55" s="97">
         <v>0.75</v>
       </c>
       <c r="K55" s="96">
         <f t="shared" si="8"/>
-        <v>5.2509762021014206E-2</v>
+        <v>5.1478487483061941E-2</v>
       </c>
       <c r="L55" s="97">
         <v>0.96</v>
       </c>
       <c r="M55" s="98">
         <f t="shared" si="9"/>
-        <v>0.18848299381289527</v>
+        <v>0.18642646696418014</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="12">
-        <v>45012</v>
+        <v>45026</v>
       </c>
       <c r="C56" s="18">
-        <v>142.75</v>
+        <v>130.91999799999999</v>
       </c>
       <c r="D56" s="54">
         <f t="shared" si="0"/>
-        <v>5.1255669480740007E-2</v>
+        <v>-2.2036282290142761E-2</v>
       </c>
       <c r="H56" s="95">
         <v>0.13</v>
       </c>
       <c r="I56" s="96">
         <f t="shared" si="7"/>
-        <v>-0.10078906828211134</v>
+        <v>-0.10185499262705529</v>
       </c>
       <c r="J56" s="97">
         <v>0.8</v>
       </c>
       <c r="K56" s="96">
         <f t="shared" si="8"/>
-        <v>7.7071549709468667E-2</v>
+        <v>7.5680249292055024E-2</v>
       </c>
       <c r="L56" s="97">
         <v>0.97</v>
       </c>
       <c r="M56" s="98">
         <f t="shared" si="9"/>
-        <v>0.22118926643658904</v>
+        <v>0.22016372637341972</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="12">
-        <v>45005</v>
+        <v>45019</v>
       </c>
       <c r="C57" s="18">
-        <v>135.78999300000001</v>
+        <v>133.86999499999999</v>
       </c>
       <c r="D57" s="54">
         <f t="shared" si="0"/>
-        <v>1.4722692355539913E-4</v>
+        <v>-6.2206690017513222E-2</v>
       </c>
       <c r="H57" s="95">
         <v>0.14000000000000001</v>
       </c>
       <c r="I57" s="96">
         <f t="shared" si="7"/>
-        <v>-9.2120903297031861E-2</v>
+        <v>-9.4110244010921912E-2</v>
       </c>
       <c r="J57" s="97"/>
       <c r="K57" s="96"/>
@@ -22739,26 +22740,26 @@
       </c>
       <c r="M57" s="98">
         <f t="shared" si="9"/>
-        <v>0.2448913065352154</v>
+        <v>0.24451695530154785</v>
       </c>
     </row>
     <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
-        <v>44998</v>
+        <v>45012</v>
       </c>
       <c r="C58" s="18">
-        <v>135.770004</v>
+        <v>142.75</v>
       </c>
       <c r="D58" s="54">
         <f t="shared" si="0"/>
-        <v>4.882199417895694E-2</v>
+        <v>5.1255669480740007E-2</v>
       </c>
       <c r="H58" s="99">
         <v>0.15</v>
       </c>
       <c r="I58" s="100">
         <f t="shared" si="7"/>
-        <v>-8.5578294860844034E-2</v>
+        <v>-8.95937009732138E-2</v>
       </c>
       <c r="J58" s="101"/>
       <c r="K58" s="102"/>
@@ -22767,31 +22768,31 @@
       </c>
       <c r="M58" s="104">
         <f t="shared" si="9"/>
-        <v>0.28616682110175595</v>
+        <v>0.28494122636306279</v>
       </c>
     </row>
     <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
-        <v>44991</v>
+        <v>45005</v>
       </c>
       <c r="C59" s="18">
-        <v>129.449997</v>
+        <v>135.78999300000001</v>
       </c>
       <c r="D59" s="54">
         <f t="shared" si="0"/>
-        <v>-0.17167905152085394</v>
+        <v>1.4722692355539913E-4</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="12">
-        <v>44984</v>
+        <v>44998</v>
       </c>
       <c r="C60" s="18">
-        <v>156.279999</v>
+        <v>135.770004</v>
       </c>
       <c r="D60" s="54">
         <f t="shared" si="0"/>
-        <v>1.0213329221977929E-2</v>
+        <v>4.882199417895694E-2</v>
       </c>
       <c r="H60" s="105" t="s">
         <v>192</v>
@@ -22802,14 +22803,14 @@
     </row>
     <row r="61" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
-        <v>44977</v>
+        <v>44991</v>
       </c>
       <c r="C61" s="18">
-        <v>154.699997</v>
+        <v>129.449997</v>
       </c>
       <c r="D61" s="54">
         <f t="shared" si="0"/>
-        <v>1.0384664552382628E-2</v>
+        <v>-0.17167905152085394</v>
       </c>
       <c r="H61" s="107" t="s">
         <v>193</v>
@@ -22820,27 +22821,27 @@
     </row>
     <row r="62" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
-        <v>44970</v>
+        <v>44984</v>
       </c>
       <c r="C62" s="18">
-        <v>153.11000100000001</v>
+        <v>156.279999</v>
       </c>
       <c r="D62" s="54">
         <f t="shared" si="0"/>
-        <v>0.16717494412429201</v>
+        <v>1.0213329221977929E-2</v>
       </c>
       <c r="H62" s="109"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="12">
-        <v>44963</v>
+        <v>44977</v>
       </c>
       <c r="C63" s="18">
-        <v>131.179993</v>
+        <v>154.699997</v>
       </c>
       <c r="D63" s="54">
         <f t="shared" si="0"/>
-        <v>-6.8390065597472738E-2</v>
+        <v>1.0384664552382628E-2</v>
       </c>
       <c r="H63" s="105" t="s">
         <v>194</v>
@@ -22851,14 +22852,14 @@
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="12">
-        <v>44956</v>
+        <v>44970</v>
       </c>
       <c r="C64" s="18">
-        <v>140.80999800000001</v>
+        <v>153.11000100000001</v>
       </c>
       <c r="D64" s="54">
         <f t="shared" si="0"/>
-        <v>8.5324437901786787E-2</v>
+        <v>0.16717494412429201</v>
       </c>
       <c r="H64" s="111" t="s">
         <v>195</v>
@@ -22870,14 +22871,14 @@
     </row>
     <row r="65" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
-        <v>44949</v>
+        <v>44963</v>
       </c>
       <c r="C65" s="18">
-        <v>129.740005</v>
+        <v>131.179993</v>
       </c>
       <c r="D65" s="54">
         <f t="shared" si="0"/>
-        <v>0.1091733255606282</v>
+        <v>-6.8390065597472738E-2</v>
       </c>
       <c r="H65" s="107" t="s">
         <v>196</v>
@@ -22889,1029 +22890,1043 @@
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="12">
-        <v>44942</v>
+        <v>44956</v>
       </c>
       <c r="C66" s="18">
-        <v>116.970001</v>
+        <v>140.80999800000001</v>
       </c>
       <c r="D66" s="54">
         <f t="shared" si="0"/>
-        <v>8.7969299386871924E-3</v>
+        <v>8.5324437901786787E-2</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="12">
-        <v>44935</v>
+        <v>44949</v>
       </c>
       <c r="C67" s="18">
-        <v>115.949997</v>
+        <v>129.740005</v>
       </c>
       <c r="D67" s="54">
         <f t="shared" ref="D67:D130" si="10">C67/C68-1</f>
-        <v>0.15373131343283575</v>
+        <v>0.1091733255606282</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="12">
-        <v>44928</v>
+        <v>44942</v>
       </c>
       <c r="C68" s="18">
-        <v>100.5</v>
+        <v>116.970001</v>
       </c>
       <c r="D68" s="54">
         <f t="shared" si="10"/>
-        <v>-0.17622950819672134</v>
+        <v>8.7969299386871924E-3</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="12">
-        <v>44921</v>
+        <v>44935</v>
       </c>
       <c r="C69" s="18">
-        <v>122</v>
+        <v>115.949997</v>
       </c>
       <c r="D69" s="54">
         <f t="shared" si="10"/>
-        <v>7.4984599083348202E-2</v>
+        <v>0.15373131343283575</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="12">
-        <v>44914</v>
+        <v>44928</v>
       </c>
       <c r="C70" s="18">
-        <v>113.489998</v>
+        <v>100.5</v>
       </c>
       <c r="D70" s="54">
         <f t="shared" si="10"/>
-        <v>-7.4608619329815884E-2</v>
+        <v>-0.17622950819672134</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="12">
-        <v>44907</v>
+        <v>44921</v>
       </c>
       <c r="C71" s="18">
-        <v>122.639999</v>
+        <v>122</v>
       </c>
       <c r="D71" s="54">
         <f t="shared" si="10"/>
-        <v>0.11668565763766892</v>
+        <v>7.4984599083348202E-2</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="12">
-        <v>44900</v>
+        <v>44914</v>
       </c>
       <c r="C72" s="18">
-        <v>109.824997</v>
+        <v>113.489998</v>
       </c>
       <c r="D72" s="54">
         <f t="shared" si="10"/>
-        <v>1.6239446654945811E-2</v>
+        <v>-7.4608619329815884E-2</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="12">
-        <v>44893</v>
+        <v>44907</v>
       </c>
       <c r="C73" s="18">
-        <v>108.07</v>
+        <v>122.639999</v>
       </c>
       <c r="D73" s="54">
         <f t="shared" si="10"/>
-        <v>0.10467134611731899</v>
+        <v>0.11668565763766892</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="12">
-        <v>44886</v>
+        <v>44900</v>
       </c>
       <c r="C74" s="18">
-        <v>97.830001999999993</v>
+        <v>109.824997</v>
       </c>
       <c r="D74" s="54">
         <f t="shared" si="10"/>
-        <v>1.0953860006836624E-2</v>
+        <v>1.6239446654945811E-2</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="12">
-        <v>44879</v>
+        <v>44893</v>
       </c>
       <c r="C75" s="18">
-        <v>96.769997000000004</v>
+        <v>108.07</v>
       </c>
       <c r="D75" s="54">
         <f t="shared" si="10"/>
-        <v>1.6598329307735415E-2</v>
+        <v>0.10467134611731899</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="12">
-        <v>44872</v>
+        <v>44886</v>
       </c>
       <c r="C76" s="18">
-        <v>95.190002000000007</v>
+        <v>97.830001999999993</v>
       </c>
       <c r="D76" s="54">
         <f t="shared" si="10"/>
-        <v>0.17533034140833048</v>
+        <v>1.0953860006836624E-2</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="12">
-        <v>44865</v>
+        <v>44879</v>
       </c>
       <c r="C77" s="18">
-        <v>80.989998</v>
+        <v>96.769997000000004</v>
       </c>
       <c r="D77" s="54">
         <f t="shared" si="10"/>
-        <v>-0.24576270941784439</v>
+        <v>1.6598329307735415E-2</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="12">
-        <v>44858</v>
+        <v>44872</v>
       </c>
       <c r="C78" s="18">
-        <v>107.379997</v>
+        <v>95.190002000000007</v>
       </c>
       <c r="D78" s="54">
         <f t="shared" si="10"/>
-        <v>7.89791020592574E-2</v>
+        <v>0.17533034140833048</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="12">
-        <v>44851</v>
+        <v>44865</v>
       </c>
       <c r="C79" s="18">
-        <v>99.519997000000004</v>
+        <v>80.989998</v>
       </c>
       <c r="D79" s="54">
         <f t="shared" si="10"/>
-        <v>8.7769146087422589E-2</v>
+        <v>-0.24576270941784439</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="12">
-        <v>44844</v>
+        <v>44858</v>
       </c>
       <c r="C80" s="18">
-        <v>91.489998</v>
+        <v>107.379997</v>
       </c>
       <c r="D80" s="54">
         <f t="shared" si="10"/>
-        <v>-0.16240963574815614</v>
+        <v>7.89791020592574E-2</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="12">
-        <v>44837</v>
+        <v>44851</v>
       </c>
       <c r="C81" s="18">
-        <v>109.230003</v>
+        <v>99.519997000000004</v>
       </c>
       <c r="D81" s="54">
         <f t="shared" si="10"/>
-        <v>-3.6262512308541162E-2</v>
+        <v>8.7769146087422589E-2</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="12">
-        <v>44830</v>
+        <v>44844</v>
       </c>
       <c r="C82" s="18">
-        <v>113.339996</v>
+        <v>91.489998</v>
       </c>
       <c r="D82" s="54">
         <f t="shared" si="10"/>
-        <v>-5.0992246504228511E-2</v>
+        <v>-0.16240963574815614</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="12">
-        <v>44823</v>
+        <v>44837</v>
       </c>
       <c r="C83" s="18">
-        <v>119.43</v>
+        <v>109.230003</v>
       </c>
       <c r="D83" s="54">
         <f t="shared" si="10"/>
-        <v>-0.1038493553283002</v>
+        <v>-3.6262512308541162E-2</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="12">
-        <v>44816</v>
+        <v>44830</v>
       </c>
       <c r="C84" s="18">
-        <v>133.270004</v>
+        <v>113.339996</v>
       </c>
       <c r="D84" s="54">
         <f t="shared" si="10"/>
-        <v>2.2479730626967287E-2</v>
+        <v>-5.0992246504228511E-2</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="12">
-        <v>44809</v>
+        <v>44823</v>
       </c>
       <c r="C85" s="18">
-        <v>130.33999600000001</v>
+        <v>119.43</v>
       </c>
       <c r="D85" s="54">
         <f t="shared" si="10"/>
-        <v>0.17635372266190297</v>
+        <v>-0.1038493553283002</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="12">
-        <v>44802</v>
+        <v>44816</v>
       </c>
       <c r="C86" s="18">
-        <v>110.800003</v>
+        <v>133.270004</v>
       </c>
       <c r="D86" s="54">
         <f t="shared" si="10"/>
-        <v>-6.0300235423620174E-2</v>
+        <v>2.2479730626967287E-2</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="12">
-        <v>44795</v>
+        <v>44809</v>
       </c>
       <c r="C87" s="18">
-        <v>117.910004</v>
+        <v>130.33999600000001</v>
       </c>
       <c r="D87" s="54">
         <f t="shared" si="10"/>
-        <v>-6.7093876628640525E-2</v>
+        <v>0.17635372266190297</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="12">
-        <v>44788</v>
+        <v>44802</v>
       </c>
       <c r="C88" s="18">
-        <v>126.389999</v>
+        <v>110.800003</v>
       </c>
       <c r="D88" s="54">
         <f t="shared" si="10"/>
-        <v>-7.8118209564483898E-2</v>
+        <v>-6.0300235423620174E-2</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="12">
-        <v>44781</v>
+        <v>44795</v>
       </c>
       <c r="C89" s="18">
-        <v>137.10000600000001</v>
+        <v>117.910004</v>
       </c>
       <c r="D89" s="54">
         <f t="shared" si="10"/>
-        <v>7.2518218375683174E-2</v>
+        <v>-6.7093876628640525E-2</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="12">
-        <v>44774</v>
+        <v>44788</v>
       </c>
       <c r="C90" s="18">
-        <v>127.83000199999999</v>
+        <v>126.389999</v>
       </c>
       <c r="D90" s="54">
         <f t="shared" si="10"/>
-        <v>0.24432977968471392</v>
+        <v>-7.8118209564483898E-2</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="12">
-        <v>44767</v>
+        <v>44781</v>
       </c>
       <c r="C91" s="18">
-        <v>102.730003</v>
+        <v>137.10000600000001</v>
       </c>
       <c r="D91" s="54">
         <f t="shared" si="10"/>
-        <v>-2.9193265294025217E-4</v>
+        <v>7.2518218375683174E-2</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="12">
-        <v>44760</v>
+        <v>44774</v>
       </c>
       <c r="C92" s="18">
-        <v>102.760002</v>
+        <v>127.83000199999999</v>
       </c>
       <c r="D92" s="54">
         <f t="shared" si="10"/>
-        <v>0.1132055489807291</v>
+        <v>0.24432977968471392</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="12">
-        <v>44753</v>
+        <v>44767</v>
       </c>
       <c r="C93" s="18">
-        <v>92.309997999999993</v>
+        <v>102.730003</v>
       </c>
       <c r="D93" s="54">
         <f t="shared" si="10"/>
-        <v>-0.19189358683637614</v>
+        <v>-2.9193265294025217E-4</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="12">
-        <v>44746</v>
+        <v>44760</v>
       </c>
       <c r="C94" s="18">
-        <v>114.230003</v>
+        <v>102.760002</v>
       </c>
       <c r="D94" s="54">
         <f t="shared" si="10"/>
-        <v>5.0004613935061837E-2</v>
+        <v>0.1132055489807291</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="12">
-        <v>44739</v>
+        <v>44753</v>
       </c>
       <c r="C95" s="18">
-        <v>108.790001</v>
+        <v>92.309997999999993</v>
       </c>
       <c r="D95" s="54">
         <f t="shared" si="10"/>
-        <v>-0.11090225473273729</v>
+        <v>-0.19189358683637614</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="12">
-        <v>44732</v>
+        <v>44746</v>
       </c>
       <c r="C96" s="18">
-        <v>122.360001</v>
+        <v>114.230003</v>
       </c>
       <c r="D96" s="54">
         <f t="shared" si="10"/>
-        <v>0.25368856052640498</v>
+        <v>5.0004613935061837E-2</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="12">
-        <v>44725</v>
+        <v>44739</v>
       </c>
       <c r="C97" s="18">
-        <v>97.599997999999999</v>
+        <v>108.790001</v>
       </c>
       <c r="D97" s="54">
         <f t="shared" si="10"/>
-        <v>2.5680534682701595E-3</v>
+        <v>-0.11090225473273729</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="12">
-        <v>44718</v>
+        <v>44732</v>
       </c>
       <c r="C98" s="18">
-        <v>97.349997999999999</v>
+        <v>122.360001</v>
       </c>
       <c r="D98" s="54">
         <f t="shared" si="10"/>
-        <v>-0.16142646778969649</v>
+        <v>0.25368856052640498</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="12">
-        <v>44711</v>
+        <v>44725</v>
       </c>
       <c r="C99" s="18">
-        <v>116.089996</v>
+        <v>97.599997999999999</v>
       </c>
       <c r="D99" s="54">
         <f t="shared" si="10"/>
-        <v>9.3904354509966037E-3</v>
+        <v>2.5680534682701595E-3</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="12">
-        <v>44704</v>
+        <v>44718</v>
       </c>
       <c r="C100" s="18">
-        <v>115.010002</v>
+        <v>97.349997999999999</v>
       </c>
       <c r="D100" s="54">
         <f t="shared" si="10"/>
-        <v>6.4759343609679387E-3</v>
+        <v>-0.16142646778969649</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="12">
-        <v>44697</v>
+        <v>44711</v>
       </c>
       <c r="C101" s="18">
-        <v>114.269997</v>
+        <v>116.089996</v>
       </c>
       <c r="D101" s="54">
         <f t="shared" si="10"/>
-        <v>3.5241892604871206E-2</v>
+        <v>9.3904354509966037E-3</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="12">
-        <v>44690</v>
+        <v>44704</v>
       </c>
       <c r="C102" s="18">
-        <v>110.379997</v>
+        <v>115.010002</v>
       </c>
       <c r="D102" s="54">
         <f t="shared" si="10"/>
-        <v>-0.10659656560267339</v>
+        <v>6.4759343609679387E-3</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="12">
-        <v>44683</v>
+        <v>44697</v>
       </c>
       <c r="C103" s="18">
-        <v>123.550003</v>
+        <v>114.269997</v>
       </c>
       <c r="D103" s="54">
         <f t="shared" si="10"/>
-        <v>-4.5208587876750528E-2</v>
+        <v>3.5241892604871206E-2</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="12">
-        <v>44676</v>
+        <v>44690</v>
       </c>
       <c r="C104" s="18">
-        <v>129.39999399999999</v>
+        <v>110.379997</v>
       </c>
       <c r="D104" s="54">
         <f t="shared" si="10"/>
-        <v>-5.9798086906993952E-2</v>
+        <v>-0.10659656560267339</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="12">
-        <v>44669</v>
+        <v>44683</v>
       </c>
       <c r="C105" s="18">
-        <v>137.63000500000001</v>
+        <v>123.550003</v>
       </c>
       <c r="D105" s="54">
         <f t="shared" si="10"/>
-        <v>3.3535540330038582E-3</v>
+        <v>-4.5208587876750528E-2</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="12">
-        <v>44662</v>
+        <v>44676</v>
       </c>
       <c r="C106" s="18">
-        <v>137.16999799999999</v>
+        <v>129.39999399999999</v>
       </c>
       <c r="D106" s="54">
         <f t="shared" si="10"/>
-        <v>-2.5504384253494883E-2</v>
+        <v>-5.9798086906993952E-2</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="12">
-        <v>44655</v>
+        <v>44669</v>
       </c>
       <c r="C107" s="18">
-        <v>140.759995</v>
+        <v>137.63000500000001</v>
       </c>
       <c r="D107" s="54">
         <f t="shared" si="10"/>
-        <v>-0.14892075789903103</v>
+        <v>3.3535540330038582E-3</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="12">
-        <v>44648</v>
+        <v>44662</v>
       </c>
       <c r="C108" s="18">
-        <v>165.38999899999999</v>
+        <v>137.16999799999999</v>
       </c>
       <c r="D108" s="54">
         <f t="shared" si="10"/>
-        <v>9.9302108992398219E-2</v>
+        <v>-2.5504384253494883E-2</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="12">
-        <v>44641</v>
+        <v>44655</v>
       </c>
       <c r="C109" s="18">
-        <v>150.449997</v>
+        <v>140.759995</v>
       </c>
       <c r="D109" s="54">
         <f t="shared" si="10"/>
-        <v>-0.11759532551319651</v>
+        <v>-0.14892075789903103</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="12">
-        <v>44634</v>
+        <v>44648</v>
       </c>
       <c r="C110" s="18">
-        <v>170.5</v>
+        <v>165.38999899999999</v>
       </c>
       <c r="D110" s="54">
         <f t="shared" si="10"/>
-        <v>0.39685402911443601</v>
+        <v>9.9302108992398219E-2</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="12">
-        <v>44627</v>
+        <v>44641</v>
       </c>
       <c r="C111" s="18">
-        <v>122.05999799999999</v>
+        <v>150.449997</v>
       </c>
       <c r="D111" s="54">
         <f t="shared" si="10"/>
-        <v>-0.10190571401940351</v>
+        <v>-0.11759532551319651</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="12">
-        <v>44620</v>
+        <v>44634</v>
       </c>
       <c r="C112" s="18">
-        <v>135.91000399999999</v>
+        <v>170.5</v>
       </c>
       <c r="D112" s="54">
         <f t="shared" si="10"/>
-        <v>-0.12451687952470758</v>
+        <v>0.39685402911443601</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="12">
-        <v>44613</v>
+        <v>44627</v>
       </c>
       <c r="C113" s="18">
-        <v>155.240005</v>
+        <v>122.05999799999999</v>
       </c>
       <c r="D113" s="54">
         <f t="shared" si="10"/>
-        <v>-0.20291636380458933</v>
+        <v>-0.10190571401940351</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="12">
-        <v>44606</v>
+        <v>44620</v>
       </c>
       <c r="C114" s="18">
-        <v>194.759995</v>
+        <v>135.91000399999999</v>
       </c>
       <c r="D114" s="54">
         <f t="shared" si="10"/>
-        <v>-0.11031934840218627</v>
+        <v>-0.12451687952470758</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="12">
-        <v>44599</v>
+        <v>44613</v>
       </c>
       <c r="C115" s="18">
-        <v>218.91000399999999</v>
+        <v>155.240005</v>
       </c>
       <c r="D115" s="54">
         <f t="shared" si="10"/>
-        <v>0.1736542960829015</v>
+        <v>-0.20291636380458933</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="12">
-        <v>44592</v>
+        <v>44606</v>
       </c>
       <c r="C116" s="18">
-        <v>186.520004</v>
+        <v>194.759995</v>
       </c>
       <c r="D116" s="54">
         <f t="shared" si="10"/>
-        <v>-1.039893910014722E-2</v>
+        <v>-0.11031934840218627</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="12">
-        <v>44585</v>
+        <v>44599</v>
       </c>
       <c r="C117" s="18">
-        <v>188.479996</v>
+        <v>218.91000399999999</v>
       </c>
       <c r="D117" s="54">
         <f t="shared" si="10"/>
-        <v>-5.0478609571788402E-2</v>
+        <v>0.1736542960829015</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="12">
-        <v>44578</v>
+        <v>44592</v>
       </c>
       <c r="C118" s="18">
-        <v>198.5</v>
+        <v>186.520004</v>
       </c>
       <c r="D118" s="54">
         <f t="shared" si="10"/>
-        <v>-7.9484321459303953E-2</v>
+        <v>-1.039893910014722E-2</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="12">
-        <v>44571</v>
+        <v>44585</v>
       </c>
       <c r="C119" s="18">
-        <v>215.63999899999999</v>
+        <v>188.479996</v>
       </c>
       <c r="D119" s="54">
         <f t="shared" si="10"/>
-        <v>-9.1583139026389482E-2</v>
+        <v>-5.0478609571788402E-2</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="12">
-        <v>44564</v>
+        <v>44578</v>
       </c>
       <c r="C120" s="18">
-        <v>237.38000500000001</v>
+        <v>198.5</v>
       </c>
       <c r="D120" s="54">
         <f t="shared" si="10"/>
-        <v>-0.23108316846630228</v>
+        <v>-7.9484321459303953E-2</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="12">
-        <v>44557</v>
+        <v>44571</v>
       </c>
       <c r="C121" s="18">
-        <v>308.72000100000002</v>
+        <v>215.63999899999999</v>
       </c>
       <c r="D121" s="54">
         <f t="shared" si="10"/>
-        <v>1.4291835829612687E-2</v>
+        <v>-9.1583139026389482E-2</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" s="12">
-        <v>44550</v>
+        <v>44564</v>
       </c>
       <c r="C122" s="18">
-        <v>304.36999500000002</v>
+        <v>237.38000500000001</v>
       </c>
       <c r="D122" s="54">
         <f t="shared" si="10"/>
-        <v>4.2041833572417309E-2</v>
+        <v>-0.23108316846630228</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="12">
-        <v>44543</v>
+        <v>44557</v>
       </c>
       <c r="C123" s="18">
-        <v>292.08999599999999</v>
+        <v>308.72000100000002</v>
       </c>
       <c r="D123" s="54">
         <f t="shared" si="10"/>
-        <v>-5.1471084942059653E-2</v>
+        <v>1.4291835829612687E-2</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" s="12">
-        <v>44536</v>
+        <v>44550</v>
       </c>
       <c r="C124" s="18">
-        <v>307.94000199999999</v>
+        <v>304.36999500000002</v>
       </c>
       <c r="D124" s="54">
         <f t="shared" si="10"/>
-        <v>0.11669564415812128</v>
+        <v>4.2041833572417309E-2</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="12">
-        <v>44529</v>
+        <v>44543</v>
       </c>
       <c r="C125" s="18">
-        <v>275.76001000000002</v>
+        <v>292.08999599999999</v>
       </c>
       <c r="D125" s="54">
         <f t="shared" si="10"/>
-        <v>-0.18741153291835499</v>
+        <v>-5.1471084942059653E-2</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="12">
-        <v>44522</v>
+        <v>44536</v>
       </c>
       <c r="C126" s="18">
-        <v>339.35998499999999</v>
+        <v>307.94000199999999</v>
       </c>
       <c r="D126" s="54">
         <f t="shared" si="10"/>
-        <v>-8.5899030303030366E-2</v>
+        <v>0.11669564415812128</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="12">
-        <v>44515</v>
+        <v>44529</v>
       </c>
       <c r="C127" s="18">
-        <v>371.25</v>
+        <v>275.76001000000002</v>
       </c>
       <c r="D127" s="54">
         <f t="shared" si="10"/>
-        <v>2.0141752962621551E-2</v>
+        <v>-0.18741153291835499</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="12">
-        <v>44508</v>
+        <v>44522</v>
       </c>
       <c r="C128" s="18">
-        <v>363.92001299999998</v>
+        <v>339.35998499999999</v>
       </c>
       <c r="D128" s="54">
         <f t="shared" si="10"/>
-        <v>3.7577759524940468E-2</v>
+        <v>-8.5899030303030366E-2</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="12">
-        <v>44501</v>
+        <v>44515</v>
       </c>
       <c r="C129" s="18">
-        <v>350.73998999999998</v>
+        <v>371.25</v>
       </c>
       <c r="D129" s="54">
         <f t="shared" si="10"/>
-        <v>-5.6719462489183359E-2</v>
+        <v>2.0141752962621551E-2</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" s="12">
-        <v>44494</v>
+        <v>44508</v>
       </c>
       <c r="C130" s="18">
-        <v>371.82998700000002</v>
+        <v>363.92001299999998</v>
       </c>
       <c r="D130" s="54">
         <f t="shared" si="10"/>
-        <v>-1.9590842177112266E-2</v>
+        <v>3.7577759524940468E-2</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="12">
-        <v>44487</v>
+        <v>44501</v>
       </c>
       <c r="C131" s="18">
-        <v>379.26001000000002</v>
+        <v>350.73998999999998</v>
       </c>
       <c r="D131" s="54">
-        <f t="shared" ref="D131:D149" si="11">C131/C132-1</f>
-        <v>5.7288671951152947E-2</v>
+        <f t="shared" ref="D131:D151" si="11">C131/C132-1</f>
+        <v>-5.6719462489183359E-2</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="12">
-        <v>44480</v>
+        <v>44494</v>
       </c>
       <c r="C132" s="18">
-        <v>358.709991</v>
+        <v>371.82998700000002</v>
       </c>
       <c r="D132" s="54">
         <f t="shared" si="11"/>
-        <v>5.6272039641836802E-2</v>
+        <v>-1.9590842177112266E-2</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="12">
-        <v>44473</v>
+        <v>44487</v>
       </c>
       <c r="C133" s="18">
-        <v>339.60000600000001</v>
+        <v>379.26001000000002</v>
       </c>
       <c r="D133" s="54">
         <f t="shared" si="11"/>
-        <v>2.0095527078243025E-2</v>
+        <v>5.7288671951152947E-2</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" s="12">
-        <v>44466</v>
+        <v>44480</v>
       </c>
       <c r="C134" s="18">
-        <v>332.91000400000001</v>
+        <v>358.709991</v>
       </c>
       <c r="D134" s="54">
         <f t="shared" si="11"/>
-        <v>-9.2863530146966577E-2</v>
+        <v>5.6272039641836802E-2</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" s="12">
-        <v>44459</v>
+        <v>44473</v>
       </c>
       <c r="C135" s="18">
-        <v>366.98998999999998</v>
+        <v>339.60000600000001</v>
       </c>
       <c r="D135" s="54">
         <f t="shared" si="11"/>
-        <v>-1.9136720873500823E-2</v>
+        <v>2.0095527078243025E-2</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" s="12">
-        <v>44452</v>
+        <v>44466</v>
       </c>
       <c r="C136" s="18">
-        <v>374.14999399999999</v>
+        <v>332.91000400000001</v>
       </c>
       <c r="D136" s="54">
         <f t="shared" si="11"/>
-        <v>5.8606688553897168E-3</v>
+        <v>-9.2863530146966577E-2</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" s="12">
-        <v>44445</v>
+        <v>44459</v>
       </c>
       <c r="C137" s="18">
-        <v>371.97000100000002</v>
+        <v>366.98998999999998</v>
       </c>
       <c r="D137" s="54">
         <f t="shared" si="11"/>
-        <v>-2.0641892107326698E-2</v>
+        <v>-1.9136720873500823E-2</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" s="12">
-        <v>44438</v>
+        <v>44452</v>
       </c>
       <c r="C138" s="18">
-        <v>379.80999800000001</v>
+        <v>374.14999399999999</v>
       </c>
       <c r="D138" s="54">
         <f t="shared" si="11"/>
-        <v>6.3327629198311142E-2</v>
+        <v>5.8606688553897168E-3</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" s="12">
-        <v>44431</v>
+        <v>44445</v>
       </c>
       <c r="C139" s="18">
-        <v>357.19000199999999</v>
+        <v>371.97000100000002</v>
       </c>
       <c r="D139" s="54">
         <f t="shared" si="11"/>
-        <v>1.3937785323997476E-2</v>
+        <v>-2.0641892107326698E-2</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" s="12">
-        <v>44424</v>
+        <v>44438</v>
       </c>
       <c r="C140" s="18">
-        <v>352.27999899999998</v>
+        <v>379.80999800000001</v>
       </c>
       <c r="D140" s="54">
         <f t="shared" si="11"/>
-        <v>0.31496829746102928</v>
+        <v>6.3327629198311142E-2</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" s="12">
-        <v>44417</v>
+        <v>44431</v>
       </c>
       <c r="C141" s="18">
-        <v>267.89999399999999</v>
+        <v>357.19000199999999</v>
       </c>
       <c r="D141" s="54">
         <f t="shared" si="11"/>
-        <v>0.18539820353982295</v>
+        <v>1.3937785323997476E-2</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" s="12">
-        <v>44410</v>
+        <v>44424</v>
       </c>
       <c r="C142" s="18">
-        <v>226</v>
+        <v>352.27999899999998</v>
       </c>
       <c r="D142" s="54">
         <f t="shared" si="11"/>
-        <v>2.1284319892404646E-2</v>
+        <v>0.31496829746102928</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" s="12">
-        <v>44403</v>
+        <v>44417</v>
       </c>
       <c r="C143" s="18">
-        <v>221.28999300000001</v>
+        <v>267.89999399999999</v>
       </c>
       <c r="D143" s="54">
         <f t="shared" si="11"/>
-        <v>7.9832140530059048E-2</v>
+        <v>0.18539820353982295</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" s="12">
-        <v>44396</v>
+        <v>44410</v>
       </c>
       <c r="C144" s="18">
-        <v>204.929993</v>
+        <v>226</v>
       </c>
       <c r="D144" s="54">
         <f t="shared" si="11"/>
-        <v>2.9902488288320095E-2</v>
+        <v>2.1284319892404646E-2</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" s="12">
-        <v>44389</v>
+        <v>44403</v>
       </c>
       <c r="C145" s="18">
-        <v>198.979996</v>
+        <v>221.28999300000001</v>
       </c>
       <c r="D145" s="54">
         <f t="shared" si="11"/>
-        <v>-0.14247542663906221</v>
+        <v>7.9832140530059048E-2</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" s="12">
-        <v>44382</v>
+        <v>44396</v>
       </c>
       <c r="C146" s="18">
-        <v>232.03999300000001</v>
+        <v>204.929993</v>
       </c>
       <c r="D146" s="54">
         <f t="shared" si="11"/>
-        <v>1.2258417524031229E-2</v>
+        <v>2.9902488288320095E-2</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" s="12">
-        <v>44375</v>
+        <v>44389</v>
       </c>
       <c r="C147" s="18">
-        <v>229.229996</v>
+        <v>198.979996</v>
       </c>
       <c r="D147" s="54">
         <f t="shared" si="11"/>
-        <v>-1.3512927949238862E-2</v>
+        <v>-0.14247542663906221</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" s="12">
-        <v>44368</v>
+        <v>44382</v>
       </c>
       <c r="C148" s="18">
-        <v>232.36999499999999</v>
+        <v>232.03999300000001</v>
       </c>
       <c r="D148" s="54">
         <f t="shared" si="11"/>
-        <v>-6.0212465274889215E-4</v>
+        <v>1.2258417524031229E-2</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" s="12">
-        <v>44361</v>
+        <v>44375</v>
       </c>
       <c r="C149" s="18">
-        <v>232.509995</v>
+        <v>229.229996</v>
       </c>
       <c r="D149" s="54">
         <f t="shared" si="11"/>
-        <v>0.22819712353491228</v>
+        <v>-1.3512927949238862E-2</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" s="12">
+        <v>44368</v>
+      </c>
+      <c r="C150" s="18">
+        <v>232.36999499999999</v>
+      </c>
+      <c r="D150" s="54">
+        <f t="shared" si="11"/>
+        <v>-6.0212465274889215E-4</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="12">
+        <v>44361</v>
+      </c>
+      <c r="C151" s="18">
+        <v>232.509995</v>
+      </c>
+      <c r="D151" s="54">
+        <f t="shared" si="11"/>
+        <v>0.22819712353491228</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" s="12">
         <v>44354</v>
       </c>
-      <c r="C150" s="18">
+      <c r="C152" s="18">
         <v>189.30999800000001</v>
       </c>
-      <c r="D150" s="54"/>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B151" s="12"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="54"/>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B152" s="12"/>
-      <c r="C152" s="17"/>
       <c r="D152" s="54"/>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
@@ -23960,6 +23975,7 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{39B2CEA3-DA91-49C0-B446-894452E6E4AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>